--- a/questions.xlsx
+++ b/questions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51E3962-E2C7-4079-A734-88491FCE870A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FB6B26-F5F4-49AA-BE0B-5BB1E2E2B940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>Question Type</t>
   </si>
@@ -388,6 +388,40 @@
 identical to that of Qwen3-8B, but it shares the same tokenizer configuration as DeepSeek-R1-0528</t>
   </si>
   <si>
+    <t>&gt; Entering new AgentExecutor chain...
+I need to find the architecture of the deepseekr10528 model. This seems like a question about model details, so I should use VectorSearch to look for information in model cards.
+Action: VectorSearch
+Action Input: "architecture of deepseekr10528"
+Observation: [Document(metadata={'label': 'mcro_ModelArchitectureInformationSection'}, page_content="\nproperties: {'prov_hasTextValue': 'The model uses a CLIP backbone with a ViT-L/14 Transformer architecture as an image encoder and uses a masked self-attention Transformer as a text encoder. These encoders are trained to maximize the similarity of (image, text) pairs via a contrastive loss. The CLIP backbone is trained from scratch and fine-tuned together with the box and class prediction heads with an object detection objective.'}"), Document(metadata={'label': 'mcro_ModelArchitectureInformationSection'}, page_content="\nproperties: {'prov_hasTextValue': 'SegFormer consists of a hierarchical Transformer encoder and a lightweight all-MLP decode head to achieve great results on semantic segmentation benchmarks such as ADE20K and Cityscapes. The hierarchical Transformer is first pre-trained on ImageNet-1k, after which a decode head is added and fine-tuned altogether on a downstream dataset.'}")]
+Thought:The search results don't directly mention "deepseekr10528". They describe the architectures of other models using CLIP and SegFormer. I need to refine my search to specifically target deepseekr10528.
+Action: VectorSearch
+Action Input: "deepseekr10528 architecture"
+Observation: [Document(metadata={'label': 'obo_http_//purl.obolibrary.org/obo/IAO_0000314'}, page_content="\nproperties: {'prov_hasTextValue': '8-bit quantized version of DeepSeek-R1-0528-Qwen3-8B using MLX, optimized for Apple Silicon.'}"), Document(metadata={'label': 'mcro_ModelArchitectureInformationSection'}, page_content="\nproperties: {'prov_hasTextValue': 'DeepSeek-R1'}")]
+Thought:The search results still don't give me the architecture. The first document describes a quantized version of the model. The second just mentions "DeepSeek-R1". I need to try a different approach to get the architecture. I'll try searching for "DeepSeek-R1 architecture".
+Action: VectorSearch
+Action Input: "DeepSeek-R1 architecture"
+Observation: [Document(metadata={'label': 'mcro_ModelArchitectureInformationSection'}, page_content="\nproperties: {'prov_hasTextValue': 'The model architecture of DeepSeek-R1-0528-Qwen3-8B is identical to that of Qwen3-8B, but it shares the same tokenizer configuration as DeepSeek-R1-0528.'}"), Document(metadata={'label': 'mcro_ModelArchitectureInformationSection'}, page_content="\nproperties: {'prov_hasTextValue': 'DeepSeek-R1-Distill models are fine-tuned based on open-source models, using samples generated by DeepSeek-R1.'}")]
+Thought:I've found a document that states the architecture of DeepSeek-R1-0528-Qwen3-8B is identical to that of Qwen3-8B. Now I need to find the architecture of Qwen3-8B.
+Action: VectorSearch
+Action Input: "Qwen3-8B architecture"
+Observation: [Document(metadata={'label': 'mcro_CitationInformationSection'}, page_content="\nproperties: {'prov_hasTextValue': '@misc{qwen2.5,\\n    title = {Qwen2.5: A Party of Foundation Models},\\n    url = {https://qwenlm.github.io/blog/qwen2.5/},\\n    author = {Qwen Team},\\n    month = {September},\\n    year = {2024}\\n}\\n\\n@article{qwen2,\\n      title={Qwen2 Technical Report}, \\n      author={An Yang and Baosong Yang and Binyuan Hui and Bo Zheng and Bowen Yu and Chang Zhou and Chengpeng Li and Chengyuan Li and Dayiheng Liu and Fei Huang and Guanting Dong and Haoran Wei and Huan Lin and Jialong Tang and Jialin Wang and Jian Yang and Jianhong Tu and Jianwei Zhang and Jianxin Ma and Jin Xu and Jingren Zhou and Jinze Bai and Jinzheng He and Junyang Lin and Kai Dang and Keming Lu and Keqin Chen and Kexin Yang and Mei Li and Mingfeng Xue and Na Ni and Pei Zhang and Peng Wang and Ru Peng and Rui Men and Ruize Gao and Runji Lin and Shijie Wang and Shuai Bai and Sinan Tan and Tianhang Zhu and Tianhao Li and Tianyu Liu and Wenbin Ge and Xiaodong Deng and Xiaohuan Zhou and Xingzhang Ren and Xinyu Zhang and Xipin Wei and Xuancheng Ren and Yang Fan and Yang Yao and Yichang Zhang and Yu Wan and Yunfei Chu and Yuqiong Liu and Zeyu Cui and Zhenru Zhang and Zhihao Fan},\\n      journal={arXiv preprint arXiv:2407.10671},\\n      year={2024}\\n}'}"), Document(metadata={'label': 'mcro_CitationInformationSection'}, page_content="\nproperties: {'prov_hasTextValue': '@misc{qwen2.5,\\n    title = {Qwen2.5: A Party of Foundation Models},\\n    url = {https://qwenlm.github.io/blog/qwen2.5/},\\n    author = {Qwen Team},\\n    month = {September},\\n    year = {2024}\\n}\\n\\n@article{qwen2,\\n      title={Qwen2 Technical Report}, \\n      author={An Yang and Baosong Yang and Binyuan Hui and Bo Zheng and Bowen Yu and Chang Zhou and Chengpeng Li and Chengyuan Li and Dayiheng Liu and Fei Huang and Guanting Dong and Haoran Wei and Huan Lin and Jialong Tang and Jialin Wang and Jian Yang and Jianhong Tu and Jianwei Zhang and Jianxin Ma and Jin Xu and Jingren Zhou and Jinze Bai and Jinzheng He and Junyang Lin and Kai Dang and Keming Lu and Keqin Chen and Kexin Yang and Mei Li and Mingfeng Xue and Na Ni and Pei Zhang and Peng Wang and Ru Peng and Rui Men and Ruize Gao and Runji Lin and Shijie Wang and Shuai Bai and Sinan Tan and Tianhang Zhu and Tianhao Li and Tianyu Liu and Wenbin Ge and Xiaodong Deng and Xiaohuan Zhou and Xingzhang Ren and Xinyu Zhang and Xipin Wei and Xuancheng Ren and Yang Fan and Yang Yao and Yichang Zhang and Yu Wan and Yunfei Chu and Yuqiong Liu and Zeyu Cui and Zhenru Zhang and Zhihao Fan},\\n      journal={arXiv preprint arXiv:2407.10671},\\n      year={2024}\\n}'}")]
+Thought:The search results for Qwen3-8B architecture only provide citations, not the architecture itself. I will try a broader search to find the architecture of Qwen models.
+Action: VectorSearch
+Action Input: "Qwen architecture"
+Observation: [Document(metadata={'label': 'mcro_CitationInformationSection'}, page_content="\nproperties: {'prov_hasTextValue': '@misc{qwen2.5,\\n    title = {Qwen2.5: A Party of Foundation Models},\\n    url = {https://qwenlm.github.io/blog/qwen2.5/},\\n    author = {Qwen Team},\\n    month = {September},\\n    year = {2024}\\n}\\n\\n@article{qwen2,\\n      title={Qwen2 Technical Report}, \\n      author={An Yang and Baosong Yang and Binyuan Hui and Bo Zheng and Bowen Yu and Chang Zhou and Chengpeng Li and Chengyuan Li and Dayiheng Liu and Fei Huang and Guanting Dong and Haoran Wei and Huan Lin and Jialong Tang and Jialin Wang and Jian Yang and Jianhong Tu and Jianwei Zhang and Jianxin Ma and Jin Xu and Jingren Zhou and Jinze Bai and Jinzheng He and Junyang Lin and Kai Dang and Keming Lu and Keqin Chen and Kexin Yang and Mei Li and Mingfeng Xue and Na Ni and Pei Zhang and Peng Wang and Ru Peng and Rui Men and Ruize Gao and Runji Lin and Shijie Wang and Shuai Bai and Sinan Tan and Tianhang Zhu and Tianhao Li and Tianyu Liu and Wenbin Ge and Xiaodong Deng and Xiaohuan Zhou and Xingzhang Ren and Xinyu Zhang and Xipin Wei and Xuancheng Ren and Yang Fan and Yang Yao and Yichang Zhang and Yu Wan and Yunfei Chu and Yuqiong Liu and Zeyu Cui and Zhenru Zhang and Zhihao Fan},\\n      journal={arXiv preprint arXiv:2407.10671},\\n      year={2024}\\n}'}"), Document(metadata={'label': 'mcro_CitationInformationSection'}, page_content="\nproperties: {'prov_hasTextValue': '@misc{qwen2.5,\\n    title = {Qwen2.5: A Party of Foundation Models},\\n    url = {https://qwenlm.github.io/blog/qwen2.5/},\\n    author = {Qwen Team},\\n    month = {September},\\n    year = {2024}\\n}\\n\\n@article{qwen2,\\n      title={Qwen2 Technical Report}, \\n      author={An Yang and Baosong Yang and Binyuan Hui and Bo Zheng and Bowen Yu and Chang Zhou and Chengpeng Li and Chengyuan Li and Dayiheng Liu and Fei Huang and Guanting Dong and Haoran Wei and Huan Lin and Jialong Tang and Jialin Wang and Jian Yang and Jianhong Tu and Jianwei Zhang and Jianxin Ma and Jin Xu and Jingren Zhou and Jinze Bai and Jinzheng He and Junyang Lin and Kai Dang and Keming Lu and Keqin Chen and Kexin Yang and Mei Li and Mingfeng Xue and Na Ni and Pei Zhang and Peng Wang and Ru Peng and Rui Men and Ruize Gao and Runji Lin and Shijie Wang and Shuai Bai and Sinan Tan and Tianhang Zhu and Tianhao Li and Tianyu Liu and Wenbin Ge and Xiaodong Deng and Xiaohuan Zhou and Xingzhang Ren and Xinyu Zhang and Xipin Wei and Xuancheng Ren and Yang Fan and Yang Yao and Yichang Zhang and Yu Wan and Yunfei Chu and Yuqiong Liu and Zeyu Cui and Zhenru Zhang and Zhihao Fan},\\n      journal={arXiv preprint arXiv:2407.10671},\\n      year={2024}\\n}'}")]
+Thought:I am still unable to find the architecture. I will try searching for the architecture of DeepSeek-R1-0528 directly.
+Action: VectorSearch
+Action Input: "DeepSeek-R1-0528 architecture"
+Observation: [Document(metadata={'label': 'mcro_ModelArchitectureInformationSection'}, page_content="\nproperties: {'prov_hasTextValue': 'The model architecture of DeepSeek-R1-0528-Qwen3-8B is identical to that of Qwen3-8B, but it shares the same tokenizer configuration as DeepSeek-R1-0528.'}"), Document(metadata={'label': 'mcro_ModelArchitectureInformationSection'}, page_content="\nproperties: {'prov_hasTextValue': '4-bit quantized version of DeepSeek-R1-0528-Qwen3-8B using MLX, optimized for Apple Silicon.'}")]
+Thought:I'm still stuck in a loop. The search results keep referring back to Qwen3-8B. Since I am unable to find the architecture of Qwen3-8B, I will respond that the architecture of DeepSeek-R1-0528-Qwen3-8B is identical to that of Qwen3-8B, but the specific architecture of Qwen3-8B is not available in the current knowledge base.
+Final Answer: The model architecture of DeepSeek-R1-0528-Qwen3-8B is identical to that of Qwen3-8B, but the specific architecture of Qwen3-8B is not available in the current knowledge base.
+&gt; Finished chain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The model architecture of DeepSeek-R1-0528-Qwen3-8B is identical to that of Qwen3-8B, but the specific architecture of Qwen3-8B is not available in the current knowledge base.</t>
+  </si>
+  <si>
     <t>Comparison</t>
   </si>
   <si>
@@ -990,10 +1024,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1337,324 +1370,327 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="69.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="38.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="69.625" customWidth="1"/>
+    <col min="4" max="4" width="67.5" customWidth="1"/>
+    <col min="7" max="7" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="409.6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.6">
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.6">
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="409.6">
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="409.6">
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="409.6">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="409.6">
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="409.6">
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="409.6">
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="409.6">
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="409.6">
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="409.6">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="A13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="409.6">
-      <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="409.6">
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7"/>
     <row r="30" spans="1:7" ht="409.6">
-      <c r="A30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="A30" t="s">
         <v>80</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>82</v>
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="243">
-      <c r="D33" s="2" t="s">
-        <v>83</v>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="409.6">
-      <c r="A38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>85</v>
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A6:B6 A2:B2 F2 A3:B3 D3:F3 A4:B4 F4 A5:B5 A7:B7 F7 A8:B8 F8 A9:B9 F9 A10:B10 A11:B11 F11 A12:B12 F12 A15:B15 A13:B13 F13 A14:C14 F14 F15 F6:H6 F10 D1:F1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A6:B6 A2:B2 F2 A3:B3 D3:F3 A4:B4 F4 A5:B5 A7:B7 F7 A8:B8 F8 A9:B9 F9 A10:B10 A11:B11 F11 A12:B12 F12 A15:B15 A13:B13 F13 A14:C14 F14 F15 F6 F10 D1:F1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>